--- a/data/prize.xlsx
+++ b/data/prize.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\program\LotteryDraw\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B20F3-69FE-4A44-889E-F27BD9A79E3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2355" yWindow="960" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,26 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第五獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,39 +55,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十一獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第九獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董事長現金獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
+    <t>每次抽出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型小汽車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事長獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總經理獎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,74 +79,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>禮券 $6,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $7,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $8,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $9,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $15,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $20,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $30,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $40,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $50,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮券 $60,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現金 $10,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現金 $10,000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次抽出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總經理現金獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董事長加碼特別獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現金 $20,000元</t>
+    <t>禮券 $3,000元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -245,24 +155,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -587,346 +502,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="G4" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
